--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,78 +409,84 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>13.5439618728161</v>
+      </c>
+      <c r="C2">
+        <v>6.945276380062512</v>
+      </c>
+      <c r="D2">
+        <v>6.997502811164661</v>
+      </c>
+      <c r="E2">
+        <v>6.985375925238968</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>48.89282800946152</v>
+      </c>
+      <c r="H2">
+        <v>14.83479488953945</v>
+      </c>
+      <c r="I2">
+        <v>24.84170015001854</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>11.58670778441751</v>
+      </c>
+      <c r="L2">
+        <v>7.102500747161409</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>12.59272341293732</v>
+      </c>
+      <c r="C3">
+        <v>6.579655395181796</v>
+      </c>
+      <c r="D3">
+        <v>6.506445748269394</v>
+      </c>
+      <c r="E3">
+        <v>6.878943596730835</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>47.32017769011902</v>
+      </c>
+      <c r="H3">
+        <v>14.6313576231105</v>
+      </c>
+      <c r="I3">
+        <v>24.44443662660769</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>10.82176594495211</v>
+      </c>
+      <c r="L3">
+        <v>6.900716382232684</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.00455203760609</v>
+      </c>
+      <c r="C4">
+        <v>6.345890066173957</v>
+      </c>
+      <c r="D4">
+        <v>6.219504020120945</v>
+      </c>
+      <c r="E4">
+        <v>6.816566863398705</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>46.36554262926281</v>
+      </c>
+      <c r="H4">
+        <v>14.51374584038513</v>
+      </c>
+      <c r="I4">
+        <v>24.21254419940047</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.32714020007939</v>
+      </c>
+      <c r="L4">
+        <v>6.77848556231186</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>11.78093413045791</v>
+      </c>
+      <c r="C5">
+        <v>6.248313646789518</v>
+      </c>
+      <c r="D5">
+        <v>6.107535137626043</v>
+      </c>
+      <c r="E5">
+        <v>6.791900550464364</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>45.97961791933359</v>
+      </c>
+      <c r="H5">
+        <v>14.46762300186017</v>
+      </c>
+      <c r="I5">
+        <v>24.12103519338963</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>10.11925573419551</v>
+      </c>
+      <c r="L5">
+        <v>6.729146597733679</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>11.7434981951044</v>
+      </c>
+      <c r="C6">
+        <v>6.231972023962105</v>
+      </c>
+      <c r="D6">
+        <v>6.088808302035125</v>
+      </c>
+      <c r="E6">
+        <v>6.787850315398656</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>45.91573270782542</v>
+      </c>
+      <c r="H6">
+        <v>14.4600724154351</v>
+      </c>
+      <c r="I6">
+        <v>24.10601959765921</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10.0843537034729</v>
+      </c>
+      <c r="L6">
+        <v>6.72098392176195</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.00155676675641</v>
+      </c>
+      <c r="C7">
+        <v>6.344583460657137</v>
+      </c>
+      <c r="D7">
+        <v>6.218003050284338</v>
+      </c>
+      <c r="E7">
+        <v>6.816231151289363</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>46.36032491383044</v>
+      </c>
+      <c r="H7">
+        <v>14.51311654556889</v>
+      </c>
+      <c r="I7">
+        <v>24.21129802456868</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10.32436224584842</v>
+      </c>
+      <c r="L7">
+        <v>6.777818181668274</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.22252439479741</v>
+      </c>
+      <c r="C8">
+        <v>6.8211413134582</v>
+      </c>
+      <c r="D8">
+        <v>6.831507150754542</v>
+      </c>
+      <c r="E8">
+        <v>6.948064322204314</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>48.34849303804764</v>
+      </c>
+      <c r="H8">
+        <v>14.76311680264135</v>
+      </c>
+      <c r="I8">
+        <v>24.70220651881397</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>11.32810333244695</v>
+      </c>
+      <c r="L8">
+        <v>7.032610328197547</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.42340309405371</v>
+      </c>
+      <c r="C9">
+        <v>7.681937238174089</v>
+      </c>
+      <c r="D9">
+        <v>7.969463248041202</v>
+      </c>
+      <c r="E9">
+        <v>7.229931221921243</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>52.32133395943737</v>
+      </c>
+      <c r="H9">
+        <v>15.31261378269119</v>
+      </c>
+      <c r="I9">
+        <v>25.76185435451196</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>13.10097489454632</v>
+      </c>
+      <c r="L9">
+        <v>7.543353479184558</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>16.89409725699713</v>
+      </c>
+      <c r="C10">
+        <v>8.269960880766176</v>
+      </c>
+      <c r="D10">
+        <v>8.731881492309618</v>
+      </c>
+      <c r="E10">
+        <v>7.450933585805886</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>55.27112590422251</v>
+      </c>
+      <c r="H10">
+        <v>15.75431714574476</v>
+      </c>
+      <c r="I10">
+        <v>26.60172331818242</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>14.2883033439427</v>
+      </c>
+      <c r="L10">
+        <v>7.92288034522154</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>17.5326556871769</v>
+      </c>
+      <c r="C11">
+        <v>8.528139319788924</v>
+      </c>
+      <c r="D11">
+        <v>9.063465761106142</v>
+      </c>
+      <c r="E11">
+        <v>7.554442162751003</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>56.61787351828072</v>
+      </c>
+      <c r="H11">
+        <v>15.9639444347525</v>
+      </c>
+      <c r="I11">
+        <v>26.99767763528538</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>14.80443369560474</v>
+      </c>
+      <c r="L11">
+        <v>8.096064823629881</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>17.77019313795816</v>
+      </c>
+      <c r="C12">
+        <v>8.624602215083316</v>
+      </c>
+      <c r="D12">
+        <v>9.186900636768181</v>
+      </c>
+      <c r="E12">
+        <v>7.594062907110738</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>57.1284735726958</v>
+      </c>
+      <c r="H12">
+        <v>16.04461481592698</v>
+      </c>
+      <c r="I12">
+        <v>27.14966699125065</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>14.99652025574753</v>
+      </c>
+      <c r="L12">
+        <v>8.16169807691157</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>17.71922328725273</v>
+      </c>
+      <c r="C13">
+        <v>8.603884515536468</v>
+      </c>
+      <c r="D13">
+        <v>9.1604103557064</v>
+      </c>
+      <c r="E13">
+        <v>7.585511027660302</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>57.01847992027289</v>
+      </c>
+      <c r="H13">
+        <v>16.02718299400139</v>
+      </c>
+      <c r="I13">
+        <v>27.11684123531087</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>14.95529894021078</v>
+      </c>
+      <c r="L13">
+        <v>8.147560778001321</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>17.55228296448415</v>
+      </c>
+      <c r="C14">
+        <v>8.536101269238596</v>
+      </c>
+      <c r="D14">
+        <v>9.073663110663515</v>
+      </c>
+      <c r="E14">
+        <v>7.557693292342627</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>56.65986878332795</v>
+      </c>
+      <c r="H14">
+        <v>15.97055515780757</v>
+      </c>
+      <c r="I14">
+        <v>27.01014046614147</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>14.82030358716917</v>
+      </c>
+      <c r="L14">
+        <v>8.101463582088417</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.44947444517086</v>
+      </c>
+      <c r="C15">
+        <v>8.494413520180647</v>
+      </c>
+      <c r="D15">
+        <v>9.020252625900236</v>
+      </c>
+      <c r="E15">
+        <v>7.540709323193516</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>56.44028800094743</v>
+      </c>
+      <c r="H15">
+        <v>15.93603809769052</v>
+      </c>
+      <c r="I15">
+        <v>26.94505187927875</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>14.73718014962525</v>
+      </c>
+      <c r="L15">
+        <v>8.07323389283013</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>16.85176211696578</v>
+      </c>
+      <c r="C16">
+        <v>8.252903714460812</v>
+      </c>
+      <c r="D16">
+        <v>8.709910232786278</v>
+      </c>
+      <c r="E16">
+        <v>7.444228559396948</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>55.1832020139455</v>
+      </c>
+      <c r="H16">
+        <v>15.74079565908631</v>
+      </c>
+      <c r="I16">
+        <v>26.57613056335681</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>14.25409767188118</v>
+      </c>
+      <c r="L16">
+        <v>7.911570795117104</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>16.47735732477722</v>
+      </c>
+      <c r="C17">
+        <v>8.102381874391812</v>
+      </c>
+      <c r="D17">
+        <v>8.515664476844208</v>
+      </c>
+      <c r="E17">
+        <v>7.385799302175164</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>54.41318654417577</v>
+      </c>
+      <c r="H17">
+        <v>15.62327356422717</v>
+      </c>
+      <c r="I17">
+        <v>26.35340163610014</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>13.95165824963211</v>
+      </c>
+      <c r="L17">
+        <v>7.812512664981681</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>16.25913471330707</v>
+      </c>
+      <c r="C18">
+        <v>8.014926065614187</v>
+      </c>
+      <c r="D18">
+        <v>8.402500621503636</v>
+      </c>
+      <c r="E18">
+        <v>7.352472302628407</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>53.97075357647425</v>
+      </c>
+      <c r="H18">
+        <v>15.55649371318066</v>
+      </c>
+      <c r="I18">
+        <v>26.22659792636168</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>13.77543908912243</v>
+      </c>
+      <c r="L18">
+        <v>7.755588499685497</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>16.18475129901654</v>
+      </c>
+      <c r="C19">
+        <v>7.985163004383243</v>
+      </c>
+      <c r="D19">
+        <v>8.363936313165405</v>
+      </c>
+      <c r="E19">
+        <v>7.341236572892232</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>53.82103600806375</v>
+      </c>
+      <c r="H19">
+        <v>15.53402221013289</v>
+      </c>
+      <c r="I19">
+        <v>26.18388692784811</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>13.71538288505429</v>
+      </c>
+      <c r="L19">
+        <v>7.736324683590906</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>16.51751012050687</v>
+      </c>
+      <c r="C20">
+        <v>8.118495987054446</v>
+      </c>
+      <c r="D20">
+        <v>8.536490740183272</v>
+      </c>
+      <c r="E20">
+        <v>7.391990252110146</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>54.49510927554153</v>
+      </c>
+      <c r="H20">
+        <v>15.63569930057642</v>
+      </c>
+      <c r="I20">
+        <v>26.37697620011003</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>13.98408713932646</v>
+      </c>
+      <c r="L20">
+        <v>7.823052453549943</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>17.60143236700127</v>
+      </c>
+      <c r="C21">
+        <v>8.55604590105189</v>
+      </c>
+      <c r="D21">
+        <v>9.09920013066748</v>
+      </c>
+      <c r="E21">
+        <v>7.565852535012206</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>56.76518517771694</v>
+      </c>
+      <c r="H21">
+        <v>15.98715280301048</v>
+      </c>
+      <c r="I21">
+        <v>27.04142495912372</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>14.86004545329097</v>
+      </c>
+      <c r="L21">
+        <v>8.115002192354098</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>18.28500272601127</v>
+      </c>
+      <c r="C22">
+        <v>8.834434456619357</v>
+      </c>
+      <c r="D22">
+        <v>9.45458719110905</v>
+      </c>
+      <c r="E22">
+        <v>7.681954968456283</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>58.25241294361583</v>
+      </c>
+      <c r="H22">
+        <v>16.2243841655147</v>
+      </c>
+      <c r="I22">
+        <v>27.48766284651762</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>15.41299312507347</v>
+      </c>
+      <c r="L22">
+        <v>8.306105905240498</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>17.92240195260512</v>
+      </c>
+      <c r="C23">
+        <v>8.686532143534857</v>
+      </c>
+      <c r="D23">
+        <v>9.26602074161001</v>
+      </c>
+      <c r="E23">
+        <v>7.619763049691923</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>57.45833146581888</v>
+      </c>
+      <c r="H23">
+        <v>16.09706536206577</v>
+      </c>
+      <c r="I23">
+        <v>27.248380589587</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>15.11963091204303</v>
+      </c>
+      <c r="L23">
+        <v>8.204089145661758</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>16.49936630787965</v>
+      </c>
+      <c r="C24">
+        <v>8.11121366118131</v>
+      </c>
+      <c r="D24">
+        <v>8.527079830337051</v>
+      </c>
+      <c r="E24">
+        <v>7.389190498694415</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>54.45807119405105</v>
+      </c>
+      <c r="H24">
+        <v>15.6300791824113</v>
+      </c>
+      <c r="I24">
+        <v>26.36631426212348</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>13.96943334194189</v>
+      </c>
+      <c r="L24">
+        <v>7.818287333170091</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>14.85410153281476</v>
+      </c>
+      <c r="C25">
+        <v>7.456942108236987</v>
+      </c>
+      <c r="D25">
+        <v>7.674782637205858</v>
+      </c>
+      <c r="E25">
+        <v>7.151213114679202</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>51.24029452667547</v>
+      </c>
+      <c r="H25">
+        <v>15.157426750047</v>
+      </c>
+      <c r="I25">
+        <v>25.46458566964987</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>12.64190918240059</v>
+      </c>
+      <c r="L25">
+        <v>7.404272429023348</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5439618728161</v>
+        <v>13.65714501444922</v>
       </c>
       <c r="C2">
-        <v>6.945276380062512</v>
+        <v>5.35832527971197</v>
       </c>
       <c r="D2">
-        <v>6.997502811164661</v>
+        <v>6.030266841174345</v>
       </c>
       <c r="E2">
-        <v>6.985375925238968</v>
+        <v>10.6149482203283</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.89282800946152</v>
+        <v>52.35904211565074</v>
       </c>
       <c r="H2">
-        <v>14.83479488953945</v>
+        <v>19.94296560989447</v>
       </c>
       <c r="I2">
-        <v>24.84170015001854</v>
+        <v>31.56467645502768</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.58670778441751</v>
+        <v>11.6290452005049</v>
       </c>
       <c r="L2">
-        <v>7.102500747161409</v>
+        <v>10.17709072562915</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59272341293732</v>
+        <v>13.49898012448792</v>
       </c>
       <c r="C3">
-        <v>6.579655395181796</v>
+        <v>5.202703433163136</v>
       </c>
       <c r="D3">
-        <v>6.506445748269394</v>
+        <v>5.919629805366032</v>
       </c>
       <c r="E3">
-        <v>6.878943596730835</v>
+        <v>10.62054612710525</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.32017769011902</v>
+        <v>52.05360397563903</v>
       </c>
       <c r="H3">
-        <v>14.6313576231105</v>
+        <v>19.93632045796619</v>
       </c>
       <c r="I3">
-        <v>24.44443662660769</v>
+        <v>31.53071451958706</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.82176594495211</v>
+        <v>11.5218807811543</v>
       </c>
       <c r="L3">
-        <v>6.900716382232684</v>
+        <v>10.1685448459058</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00455203760609</v>
+        <v>13.40508190964185</v>
       </c>
       <c r="C4">
-        <v>6.345890066173957</v>
+        <v>5.103452716969935</v>
       </c>
       <c r="D4">
-        <v>6.219504020120945</v>
+        <v>5.852492666321898</v>
       </c>
       <c r="E4">
-        <v>6.816566863398705</v>
+        <v>10.62559304327286</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.36554262926281</v>
+        <v>51.87631122658168</v>
       </c>
       <c r="H4">
-        <v>14.51374584038513</v>
+        <v>19.93522807215466</v>
       </c>
       <c r="I4">
-        <v>24.21254419940047</v>
+        <v>31.51481978652997</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.32714020007939</v>
+        <v>11.45896476709947</v>
       </c>
       <c r="L4">
-        <v>6.77848556231186</v>
+        <v>10.16521584036634</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78093413045791</v>
+        <v>13.36767466087269</v>
       </c>
       <c r="C5">
-        <v>6.248313646789518</v>
+        <v>5.062104900677698</v>
       </c>
       <c r="D5">
-        <v>6.107535137626043</v>
+        <v>5.825373893573653</v>
       </c>
       <c r="E5">
-        <v>6.791900550464364</v>
+        <v>10.62805481982173</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45.97961791933359</v>
+        <v>51.80668777963565</v>
       </c>
       <c r="H5">
-        <v>14.46762300186017</v>
+        <v>19.93553455152819</v>
       </c>
       <c r="I5">
-        <v>24.12103519338963</v>
+        <v>31.50959116799577</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.11925573419551</v>
+        <v>11.43408006371554</v>
       </c>
       <c r="L5">
-        <v>6.729146597733679</v>
+        <v>10.16434296052382</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7434981951044</v>
+        <v>13.36151635835295</v>
       </c>
       <c r="C6">
-        <v>6.231972023962105</v>
+        <v>5.055185485775334</v>
       </c>
       <c r="D6">
-        <v>6.088808302035125</v>
+        <v>5.82088652645276</v>
       </c>
       <c r="E6">
-        <v>6.787850315398656</v>
+        <v>10.62848807142011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>45.91573270782542</v>
+        <v>51.79528670727586</v>
       </c>
       <c r="H6">
-        <v>14.4600724154351</v>
+        <v>19.9356308428366</v>
       </c>
       <c r="I6">
-        <v>24.10601959765921</v>
+        <v>31.50879841369827</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.0843537034729</v>
+        <v>11.4299943407576</v>
       </c>
       <c r="L6">
-        <v>6.72098392176195</v>
+        <v>10.16422726927484</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00155676675641</v>
+        <v>13.40457388966091</v>
       </c>
       <c r="C7">
-        <v>6.344583460657137</v>
+        <v>5.102898701005539</v>
       </c>
       <c r="D7">
-        <v>6.218003050284338</v>
+        <v>5.852125907321283</v>
       </c>
       <c r="E7">
-        <v>6.816231151289363</v>
+        <v>10.62562460299352</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.36032491383044</v>
+        <v>51.87536157271943</v>
       </c>
       <c r="H7">
-        <v>14.51311654556889</v>
+        <v>19.93522916194615</v>
       </c>
       <c r="I7">
-        <v>24.21129802456868</v>
+        <v>31.51474421410122</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.32436224584842</v>
+        <v>11.45862607282628</v>
       </c>
       <c r="L7">
-        <v>6.777818181668274</v>
+        <v>10.16520210825398</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.22252439479741</v>
+        <v>13.60197193263899</v>
       </c>
       <c r="C8">
-        <v>6.8211413134582</v>
+        <v>5.305450211580684</v>
       </c>
       <c r="D8">
-        <v>6.831507150754542</v>
+        <v>5.991978511090287</v>
       </c>
       <c r="E8">
-        <v>6.948064322204314</v>
+        <v>10.61654449345137</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.34849303804764</v>
+        <v>52.25163022868752</v>
       </c>
       <c r="H8">
-        <v>14.76311680264135</v>
+        <v>19.94005453871538</v>
       </c>
       <c r="I8">
-        <v>24.70220651881397</v>
+        <v>31.55193866762967</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.32810333244695</v>
+        <v>11.59151434206853</v>
       </c>
       <c r="L8">
-        <v>7.032610328197547</v>
+        <v>10.17374688754072</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.42340309405371</v>
+        <v>14.01237748201029</v>
       </c>
       <c r="C9">
-        <v>7.681937238174089</v>
+        <v>5.672227225454589</v>
       </c>
       <c r="D9">
-        <v>7.969463248041202</v>
+        <v>6.27076892633707</v>
       </c>
       <c r="E9">
-        <v>7.229931221921243</v>
+        <v>10.61149387591887</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.32133395943737</v>
+        <v>53.06850320775963</v>
       </c>
       <c r="H9">
-        <v>15.31261378269119</v>
+        <v>19.97319902222403</v>
       </c>
       <c r="I9">
-        <v>25.76185435451196</v>
+        <v>31.6641087426533</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.10097489454632</v>
+        <v>11.87364061981226</v>
       </c>
       <c r="L9">
-        <v>7.543353479184558</v>
+        <v>10.20565205559023</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.89409725699713</v>
+        <v>14.32507835937608</v>
       </c>
       <c r="C10">
-        <v>8.269960880766176</v>
+        <v>5.921876908221743</v>
       </c>
       <c r="D10">
-        <v>8.731881492309618</v>
+        <v>6.476046081043905</v>
       </c>
       <c r="E10">
-        <v>7.450933585805886</v>
+        <v>10.61553116425293</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.27112590422251</v>
+        <v>53.71349427989919</v>
       </c>
       <c r="H10">
-        <v>15.75431714574476</v>
+        <v>20.01193990180071</v>
       </c>
       <c r="I10">
-        <v>26.60172331818242</v>
+        <v>31.77025506416917</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.2883033439427</v>
+        <v>12.0921615807107</v>
       </c>
       <c r="L10">
-        <v>7.92288034522154</v>
+        <v>10.23821650297603</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5326556871769</v>
+        <v>14.46910564432527</v>
       </c>
       <c r="C11">
-        <v>8.528139319788924</v>
+        <v>6.030921715208457</v>
       </c>
       <c r="D11">
-        <v>9.063465761106142</v>
+        <v>6.569059818393475</v>
       </c>
       <c r="E11">
-        <v>7.554442162751003</v>
+        <v>10.61904194824692</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.61787351828072</v>
+        <v>54.0158712108013</v>
       </c>
       <c r="H11">
-        <v>15.9639444347525</v>
+        <v>20.03267200983704</v>
       </c>
       <c r="I11">
-        <v>26.99767763528538</v>
+        <v>31.8236437996157</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.80443369560474</v>
+        <v>12.19359586005945</v>
       </c>
       <c r="L11">
-        <v>8.096064823629881</v>
+        <v>10.25498235811142</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77019313795816</v>
+        <v>14.52384609028485</v>
       </c>
       <c r="C12">
-        <v>8.624602215083316</v>
+        <v>6.071547883132284</v>
       </c>
       <c r="D12">
-        <v>9.186900636768181</v>
+        <v>6.604191646011623</v>
       </c>
       <c r="E12">
-        <v>7.594062907110738</v>
+        <v>10.62061120036375</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.1284735726958</v>
+        <v>54.13159250035513</v>
       </c>
       <c r="H12">
-        <v>16.04461481592698</v>
+        <v>20.04096766415697</v>
       </c>
       <c r="I12">
-        <v>27.14966699125065</v>
+        <v>31.84458845463424</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.99652025574753</v>
+        <v>12.23226235243428</v>
       </c>
       <c r="L12">
-        <v>8.16169807691157</v>
+        <v>10.26160884536168</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.71922328725273</v>
+        <v>14.51204871364459</v>
       </c>
       <c r="C13">
-        <v>8.603884515536468</v>
+        <v>6.062828205925884</v>
       </c>
       <c r="D13">
-        <v>9.1604103557064</v>
+        <v>6.596629980431652</v>
       </c>
       <c r="E13">
-        <v>7.585511027660302</v>
+        <v>10.62026258544042</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.01847992027289</v>
+        <v>54.10661686075721</v>
       </c>
       <c r="H13">
-        <v>16.02718299400139</v>
+        <v>20.03916129972832</v>
       </c>
       <c r="I13">
-        <v>27.11684123531087</v>
+        <v>31.84004539929736</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.95529894021078</v>
+        <v>12.2239240422651</v>
       </c>
       <c r="L13">
-        <v>8.147560778001321</v>
+        <v>10.26016941774001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55228296448415</v>
+        <v>14.47360547072954</v>
       </c>
       <c r="C14">
-        <v>8.536101269238596</v>
+        <v>6.034277504309721</v>
       </c>
       <c r="D14">
-        <v>9.073663110663515</v>
+        <v>6.57195215666557</v>
       </c>
       <c r="E14">
-        <v>7.557693292342627</v>
+        <v>10.61916625163218</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.65986878332795</v>
+        <v>54.0253676860165</v>
       </c>
       <c r="H14">
-        <v>15.97055515780757</v>
+        <v>20.03334559641221</v>
       </c>
       <c r="I14">
-        <v>27.01014046614147</v>
+        <v>31.82535238697312</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.82030358716917</v>
+        <v>12.19677206150201</v>
       </c>
       <c r="L14">
-        <v>8.101463582088417</v>
+        <v>10.25552197797817</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.44947444517086</v>
+        <v>14.45008234900993</v>
       </c>
       <c r="C15">
-        <v>8.494413520180647</v>
+        <v>6.016702091003253</v>
       </c>
       <c r="D15">
-        <v>9.020252625900236</v>
+        <v>6.556823412618231</v>
       </c>
       <c r="E15">
-        <v>7.540709323193516</v>
+        <v>10.61852591339271</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.44028800094743</v>
+        <v>53.97575663003403</v>
       </c>
       <c r="H15">
-        <v>15.93603809769052</v>
+        <v>20.02984117315766</v>
       </c>
       <c r="I15">
-        <v>26.94505187927875</v>
+        <v>31.81644703788452</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.73718014962525</v>
+        <v>12.18017289406371</v>
       </c>
       <c r="L15">
-        <v>8.07323389283013</v>
+        <v>10.25271134483305</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85176211696578</v>
+        <v>14.31569688066552</v>
       </c>
       <c r="C16">
-        <v>8.252903714460812</v>
+        <v>5.914658126009953</v>
       </c>
       <c r="D16">
-        <v>8.709910232786278</v>
+        <v>6.469956761688541</v>
       </c>
       <c r="E16">
-        <v>7.444228559396948</v>
+        <v>10.61533533680403</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.1832020139455</v>
+        <v>53.69390760251353</v>
       </c>
       <c r="H16">
-        <v>15.74079565908631</v>
+        <v>20.0106473868364</v>
       </c>
       <c r="I16">
-        <v>26.57613056335681</v>
+        <v>31.76686814235833</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.25409767188118</v>
+        <v>12.08557033863614</v>
       </c>
       <c r="L16">
-        <v>7.911570795117104</v>
+        <v>10.23715983897753</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.47735732477722</v>
+        <v>14.2336716715648</v>
       </c>
       <c r="C17">
-        <v>8.102381874391812</v>
+        <v>5.850886908764855</v>
       </c>
       <c r="D17">
-        <v>8.515664476844208</v>
+        <v>6.416545394131918</v>
       </c>
       <c r="E17">
-        <v>7.385799302175164</v>
+        <v>10.61380618564781</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.41318654417577</v>
+        <v>53.52324882936595</v>
       </c>
       <c r="H17">
-        <v>15.62327356422717</v>
+        <v>19.99966739518092</v>
       </c>
       <c r="I17">
-        <v>26.35340163610014</v>
+        <v>31.7377557327321</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.95165824963211</v>
+        <v>12.028028530075</v>
       </c>
       <c r="L17">
-        <v>7.812512664981681</v>
+        <v>10.22811737209134</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.25913471330707</v>
+        <v>14.18666358282044</v>
       </c>
       <c r="C18">
-        <v>8.014926065614187</v>
+        <v>5.813782606925113</v>
       </c>
       <c r="D18">
-        <v>8.402500621503636</v>
+        <v>6.385792104398795</v>
       </c>
       <c r="E18">
-        <v>7.352472302628407</v>
+        <v>10.61308430709408</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.97075357647425</v>
+        <v>53.42593892534357</v>
       </c>
       <c r="H18">
-        <v>15.55649371318066</v>
+        <v>19.99364475036627</v>
       </c>
       <c r="I18">
-        <v>26.22659792636168</v>
+        <v>31.72149171050128</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.77543908912243</v>
+        <v>11.99512506575438</v>
       </c>
       <c r="L18">
-        <v>7.755588499685497</v>
+        <v>10.22310033101211</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.18475129901654</v>
+        <v>14.17077845259423</v>
       </c>
       <c r="C19">
-        <v>7.985163004383243</v>
+        <v>5.80114730429708</v>
       </c>
       <c r="D19">
-        <v>8.363936313165405</v>
+        <v>6.375375162607923</v>
       </c>
       <c r="E19">
-        <v>7.341236572892232</v>
+        <v>10.61286699474998</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.82103600806375</v>
+        <v>53.39313934145085</v>
       </c>
       <c r="H19">
-        <v>15.53402221013289</v>
+        <v>19.99165592799553</v>
       </c>
       <c r="I19">
-        <v>26.18388692784811</v>
+        <v>31.71606772339879</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.71538288505429</v>
+        <v>11.98401877377174</v>
       </c>
       <c r="L19">
-        <v>7.736324683590906</v>
+        <v>10.22143332959545</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.51751012050687</v>
+        <v>14.24238613645504</v>
       </c>
       <c r="C20">
-        <v>8.118495987054446</v>
+        <v>5.857719552713029</v>
       </c>
       <c r="D20">
-        <v>8.536490740183272</v>
+        <v>6.422234764990659</v>
       </c>
       <c r="E20">
-        <v>7.391990252110146</v>
+        <v>10.61395265686232</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.49510927554153</v>
+        <v>53.54132844153118</v>
       </c>
       <c r="H20">
-        <v>15.63569930057642</v>
+        <v>20.00080594946781</v>
       </c>
       <c r="I20">
-        <v>26.37697620011003</v>
+        <v>31.74080509376063</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.98408713932646</v>
+        <v>12.03413423362634</v>
       </c>
       <c r="L20">
-        <v>7.823052453549943</v>
+        <v>10.22906094181382</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.60143236700127</v>
+        <v>14.48489218016162</v>
       </c>
       <c r="C21">
-        <v>8.55604590105189</v>
+        <v>6.04268175410864</v>
       </c>
       <c r="D21">
-        <v>9.09920013066748</v>
+        <v>6.579203377147071</v>
       </c>
       <c r="E21">
-        <v>7.565852535012206</v>
+        <v>10.61948177171653</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.76518517771694</v>
+        <v>54.04920007395022</v>
       </c>
       <c r="H21">
-        <v>15.98715280301048</v>
+        <v>20.03504175521354</v>
       </c>
       <c r="I21">
-        <v>27.04142495912372</v>
+        <v>31.82964838981852</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.86004545329097</v>
+        <v>12.20474060948947</v>
       </c>
       <c r="L21">
-        <v>8.115002192354098</v>
+        <v>10.25687953517565</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.28500272601127</v>
+        <v>14.6445271302591</v>
       </c>
       <c r="C22">
-        <v>8.834434456619357</v>
+        <v>6.159672698459537</v>
       </c>
       <c r="D22">
-        <v>9.45458719110905</v>
+        <v>6.681248057929018</v>
       </c>
       <c r="E22">
-        <v>7.681954968456283</v>
+        <v>10.62449254253711</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.25241294361583</v>
+        <v>54.38818635502457</v>
       </c>
       <c r="H22">
-        <v>16.2243841655147</v>
+        <v>20.06000853956349</v>
       </c>
       <c r="I22">
-        <v>27.48766284651762</v>
+        <v>31.89194964399967</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.41299312507347</v>
+        <v>12.31771441193938</v>
       </c>
       <c r="L22">
-        <v>8.306105905240498</v>
+        <v>10.27667715127544</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.92240195260512</v>
+        <v>14.55924040958974</v>
       </c>
       <c r="C23">
-        <v>8.686532143534857</v>
+        <v>6.097593547172473</v>
       </c>
       <c r="D23">
-        <v>9.26602074161001</v>
+        <v>6.626846551756264</v>
       </c>
       <c r="E23">
-        <v>7.619763049691923</v>
+        <v>10.62169070564847</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.45833146581888</v>
+        <v>54.20664107081369</v>
       </c>
       <c r="H23">
-        <v>16.09706536206577</v>
+        <v>20.04644696142983</v>
       </c>
       <c r="I23">
-        <v>27.248380589587</v>
+        <v>31.85831284418722</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.11963091204303</v>
+        <v>12.25729535644679</v>
       </c>
       <c r="L23">
-        <v>8.204089145661758</v>
+        <v>10.26596397094006</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.49936630787965</v>
+        <v>14.23844585759615</v>
       </c>
       <c r="C24">
-        <v>8.11121366118131</v>
+        <v>5.854631887995963</v>
       </c>
       <c r="D24">
-        <v>8.527079830337051</v>
+        <v>6.419662742057514</v>
       </c>
       <c r="E24">
-        <v>7.389190498694415</v>
+        <v>10.61388594734512</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.45807119405105</v>
+        <v>53.53315213856958</v>
       </c>
       <c r="H24">
-        <v>15.6300791824113</v>
+        <v>20.0002903058022</v>
       </c>
       <c r="I24">
-        <v>26.36631426212348</v>
+        <v>31.73942500341516</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.96943334194189</v>
+        <v>12.03137328755675</v>
       </c>
       <c r="L24">
-        <v>7.818287333170091</v>
+        <v>10.22863378806751</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.85410153281476</v>
+        <v>13.89916707205997</v>
       </c>
       <c r="C25">
-        <v>7.456942108236987</v>
+        <v>5.576402105090348</v>
       </c>
       <c r="D25">
-        <v>7.674782637205858</v>
+        <v>6.195105707013814</v>
       </c>
       <c r="E25">
-        <v>7.151213114679202</v>
+        <v>10.61149707226665</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.24029452667547</v>
+        <v>52.83938840873979</v>
       </c>
       <c r="H25">
-        <v>15.157426750047</v>
+        <v>19.96170082492816</v>
       </c>
       <c r="I25">
-        <v>25.46458566964987</v>
+        <v>31.62957949552369</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.64190918240059</v>
+        <v>11.79520361055847</v>
       </c>
       <c r="L25">
-        <v>7.404272429023348</v>
+        <v>10.19540940689224</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65714501444922</v>
+        <v>13.54396187281613</v>
       </c>
       <c r="C2">
-        <v>5.35832527971197</v>
+        <v>6.945276380062608</v>
       </c>
       <c r="D2">
-        <v>6.030266841174345</v>
+        <v>6.997502811164671</v>
       </c>
       <c r="E2">
-        <v>10.6149482203283</v>
+        <v>6.985375925238979</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>52.35904211565074</v>
+        <v>48.89282800946153</v>
       </c>
       <c r="H2">
-        <v>19.94296560989447</v>
+        <v>14.83479488953934</v>
       </c>
       <c r="I2">
-        <v>31.56467645502768</v>
+        <v>24.8417001500185</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.6290452005049</v>
+        <v>11.58670778441755</v>
       </c>
       <c r="L2">
-        <v>10.17709072562915</v>
+        <v>7.102500747161441</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.49898012448792</v>
+        <v>12.59272341293729</v>
       </c>
       <c r="C3">
-        <v>5.202703433163136</v>
+        <v>6.579655395181802</v>
       </c>
       <c r="D3">
-        <v>5.919629805366032</v>
+        <v>6.506445748269302</v>
       </c>
       <c r="E3">
-        <v>10.62054612710525</v>
+        <v>6.87894359673079</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>52.05360397563903</v>
+        <v>47.32017769011904</v>
       </c>
       <c r="H3">
-        <v>19.93632045796619</v>
+        <v>14.63135762311055</v>
       </c>
       <c r="I3">
-        <v>31.53071451958706</v>
+        <v>24.44443662660772</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.5218807811543</v>
+        <v>10.82176594495209</v>
       </c>
       <c r="L3">
-        <v>10.1685448459058</v>
+        <v>6.900716382232654</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.40508190964185</v>
+        <v>12.00455203760613</v>
       </c>
       <c r="C4">
-        <v>5.103452716969935</v>
+        <v>6.345890066173824</v>
       </c>
       <c r="D4">
-        <v>5.852492666321898</v>
+        <v>6.219504020120931</v>
       </c>
       <c r="E4">
-        <v>10.62559304327286</v>
+        <v>6.816566863398705</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.87631122658168</v>
+        <v>46.36554262926323</v>
       </c>
       <c r="H4">
-        <v>19.93522807215466</v>
+        <v>14.51374584038536</v>
       </c>
       <c r="I4">
-        <v>31.51481978652997</v>
+        <v>24.21254419940077</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.45896476709947</v>
+        <v>10.32714020007934</v>
       </c>
       <c r="L4">
-        <v>10.16521584036634</v>
+        <v>6.778485562311882</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.36767466087269</v>
+        <v>11.78093413045791</v>
       </c>
       <c r="C5">
-        <v>5.062104900677698</v>
+        <v>6.248313646789703</v>
       </c>
       <c r="D5">
-        <v>5.825373893573653</v>
+        <v>6.107535137626022</v>
       </c>
       <c r="E5">
-        <v>10.62805481982173</v>
+        <v>6.791900550464371</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.80668777963565</v>
+        <v>45.97961791933357</v>
       </c>
       <c r="H5">
-        <v>19.93553455152819</v>
+        <v>14.46762300186013</v>
       </c>
       <c r="I5">
-        <v>31.50959116799577</v>
+        <v>24.12103519338964</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.43408006371554</v>
+        <v>10.11925573419553</v>
       </c>
       <c r="L5">
-        <v>10.16434296052382</v>
+        <v>6.729146597733653</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.36151635835295</v>
+        <v>11.7434981951044</v>
       </c>
       <c r="C6">
-        <v>5.055185485775334</v>
+        <v>6.231972023962502</v>
       </c>
       <c r="D6">
-        <v>5.82088652645276</v>
+        <v>6.08880830203507</v>
       </c>
       <c r="E6">
-        <v>10.62848807142011</v>
+        <v>6.787850315398873</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.79528670727586</v>
+        <v>45.9157327078252</v>
       </c>
       <c r="H6">
-        <v>19.9356308428366</v>
+        <v>14.46007241543495</v>
       </c>
       <c r="I6">
-        <v>31.50879841369827</v>
+        <v>24.10601959765912</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.4299943407576</v>
+        <v>10.08435370347297</v>
       </c>
       <c r="L6">
-        <v>10.16422726927484</v>
+        <v>6.720983921761984</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.40457388966091</v>
+        <v>12.00155676675643</v>
       </c>
       <c r="C7">
-        <v>5.102898701005539</v>
+        <v>6.344583460656899</v>
       </c>
       <c r="D7">
-        <v>5.852125907321283</v>
+        <v>6.218003050284337</v>
       </c>
       <c r="E7">
-        <v>10.62562460299352</v>
+        <v>6.816231151289374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51.87536157271943</v>
+        <v>46.36032491383104</v>
       </c>
       <c r="H7">
-        <v>19.93522916194615</v>
+        <v>14.51311654556907</v>
       </c>
       <c r="I7">
-        <v>31.51474421410122</v>
+        <v>24.21129802456892</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.45862607282628</v>
+        <v>10.32436224584828</v>
       </c>
       <c r="L7">
-        <v>10.16520210825398</v>
+        <v>6.777818181668321</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.60197193263899</v>
+        <v>13.22252439479749</v>
       </c>
       <c r="C8">
-        <v>5.305450211580684</v>
+        <v>6.821141313458193</v>
       </c>
       <c r="D8">
-        <v>5.991978511090287</v>
+        <v>6.831507150754505</v>
       </c>
       <c r="E8">
-        <v>10.61654449345137</v>
+        <v>6.948064322204425</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>52.25163022868752</v>
+        <v>48.34849303804759</v>
       </c>
       <c r="H8">
-        <v>19.94005453871538</v>
+        <v>14.76311680264134</v>
       </c>
       <c r="I8">
-        <v>31.55193866762967</v>
+        <v>24.70220651881392</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.59151434206853</v>
+        <v>11.32810333244698</v>
       </c>
       <c r="L8">
-        <v>10.17374688754072</v>
+        <v>7.032610328197631</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.01237748201029</v>
+        <v>15.42340309405373</v>
       </c>
       <c r="C9">
-        <v>5.672227225454589</v>
+        <v>7.681937238173822</v>
       </c>
       <c r="D9">
-        <v>6.27076892633707</v>
+        <v>7.969463248041244</v>
       </c>
       <c r="E9">
-        <v>10.61149387591887</v>
+        <v>7.229931221921306</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.06850320775963</v>
+        <v>52.32133395943794</v>
       </c>
       <c r="H9">
-        <v>19.97319902222403</v>
+        <v>15.31261378269135</v>
       </c>
       <c r="I9">
-        <v>31.6641087426533</v>
+        <v>25.76185435451227</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.87364061981226</v>
+        <v>13.10097489454626</v>
       </c>
       <c r="L9">
-        <v>10.20565205559023</v>
+        <v>7.543353479184627</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.32507835937608</v>
+        <v>16.89409725699706</v>
       </c>
       <c r="C10">
-        <v>5.921876908221743</v>
+        <v>8.269960880766153</v>
       </c>
       <c r="D10">
-        <v>6.476046081043905</v>
+        <v>8.731881492309594</v>
       </c>
       <c r="E10">
-        <v>10.61553116425293</v>
+        <v>7.45093358580591</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>53.71349427989919</v>
+        <v>55.27112590422264</v>
       </c>
       <c r="H10">
-        <v>20.01193990180071</v>
+        <v>15.75431714574479</v>
       </c>
       <c r="I10">
-        <v>31.77025506416917</v>
+        <v>26.60172331818253</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.0921615807107</v>
+        <v>14.28830334394266</v>
       </c>
       <c r="L10">
-        <v>10.23821650297603</v>
+        <v>7.922880345221546</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46910564432527</v>
+        <v>17.53265568717693</v>
       </c>
       <c r="C11">
-        <v>6.030921715208457</v>
+        <v>8.528139319788821</v>
       </c>
       <c r="D11">
-        <v>6.569059818393475</v>
+        <v>9.063465761106318</v>
       </c>
       <c r="E11">
-        <v>10.61904194824692</v>
+        <v>7.554442162750946</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.0158712108013</v>
+        <v>56.61787351828068</v>
       </c>
       <c r="H11">
-        <v>20.03267200983704</v>
+        <v>15.96394443475246</v>
       </c>
       <c r="I11">
-        <v>31.8236437996157</v>
+        <v>26.99767763528534</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.19359586005945</v>
+        <v>14.80443369560472</v>
       </c>
       <c r="L11">
-        <v>10.25498235811142</v>
+        <v>8.096064823629847</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.52384609028485</v>
+        <v>17.77019313795818</v>
       </c>
       <c r="C12">
-        <v>6.071547883132284</v>
+        <v>8.624602215083227</v>
       </c>
       <c r="D12">
-        <v>6.604191646011623</v>
+        <v>9.186900636768167</v>
       </c>
       <c r="E12">
-        <v>10.62061120036375</v>
+        <v>7.594062907110716</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.13159250035513</v>
+        <v>57.12847357269563</v>
       </c>
       <c r="H12">
-        <v>20.04096766415697</v>
+        <v>16.04461481592687</v>
       </c>
       <c r="I12">
-        <v>31.84458845463424</v>
+        <v>27.14966699125056</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.23226235243428</v>
+        <v>14.99652025574752</v>
       </c>
       <c r="L12">
-        <v>10.26160884536168</v>
+        <v>8.161698076911584</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.51204871364459</v>
+        <v>17.71922328725271</v>
       </c>
       <c r="C13">
-        <v>6.062828205925884</v>
+        <v>8.603884515536533</v>
       </c>
       <c r="D13">
-        <v>6.596629980431652</v>
+        <v>9.160410355706389</v>
       </c>
       <c r="E13">
-        <v>10.62026258544042</v>
+        <v>7.585511027660345</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.10661686075721</v>
+        <v>57.01847992027308</v>
       </c>
       <c r="H13">
-        <v>20.03916129972832</v>
+        <v>16.02718299400147</v>
       </c>
       <c r="I13">
-        <v>31.84004539929736</v>
+        <v>27.11684123531105</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.2239240422651</v>
+        <v>14.95529894021073</v>
       </c>
       <c r="L13">
-        <v>10.26016941774001</v>
+        <v>8.147560778001329</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.47360547072954</v>
+        <v>17.55228296448409</v>
       </c>
       <c r="C14">
-        <v>6.034277504309721</v>
+        <v>8.536101269238582</v>
       </c>
       <c r="D14">
-        <v>6.57195215666557</v>
+        <v>9.073663110663595</v>
       </c>
       <c r="E14">
-        <v>10.61916625163218</v>
+        <v>7.557693292342645</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>54.0253676860165</v>
+        <v>56.65986878332806</v>
       </c>
       <c r="H14">
-        <v>20.03334559641221</v>
+        <v>15.97055515780757</v>
       </c>
       <c r="I14">
-        <v>31.82535238697312</v>
+        <v>27.01014046614154</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.19677206150201</v>
+        <v>14.82030358716913</v>
       </c>
       <c r="L14">
-        <v>10.25552197797817</v>
+        <v>8.101463582088376</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.45008234900993</v>
+        <v>17.44947444517081</v>
       </c>
       <c r="C15">
-        <v>6.016702091003253</v>
+        <v>8.494413520180725</v>
       </c>
       <c r="D15">
-        <v>6.556823412618231</v>
+        <v>9.020252625900152</v>
       </c>
       <c r="E15">
-        <v>10.61852591339271</v>
+        <v>7.540709323193472</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.97575663003403</v>
+        <v>56.44028800094772</v>
       </c>
       <c r="H15">
-        <v>20.02984117315766</v>
+        <v>15.93603809769066</v>
       </c>
       <c r="I15">
-        <v>31.81644703788452</v>
+        <v>26.94505187927897</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.18017289406371</v>
+        <v>14.73718014962518</v>
       </c>
       <c r="L15">
-        <v>10.25271134483305</v>
+        <v>8.073233892830102</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.31569688066552</v>
+        <v>16.85176211696574</v>
       </c>
       <c r="C16">
-        <v>5.914658126009953</v>
+        <v>8.252903714460929</v>
       </c>
       <c r="D16">
-        <v>6.469956761688541</v>
+        <v>8.709910232786248</v>
       </c>
       <c r="E16">
-        <v>10.61533533680403</v>
+        <v>7.444228559396985</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>53.69390760251353</v>
+        <v>55.1832020139455</v>
       </c>
       <c r="H16">
-        <v>20.0106473868364</v>
+        <v>15.7407956590863</v>
       </c>
       <c r="I16">
-        <v>31.76686814235833</v>
+        <v>26.57613056335679</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.08557033863614</v>
+        <v>14.25409767188118</v>
       </c>
       <c r="L16">
-        <v>10.23715983897753</v>
+        <v>7.911570795117107</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.2336716715648</v>
+        <v>16.47735732477725</v>
       </c>
       <c r="C17">
-        <v>5.850886908764855</v>
+        <v>8.102381874391797</v>
       </c>
       <c r="D17">
-        <v>6.416545394131918</v>
+        <v>8.515664476844243</v>
       </c>
       <c r="E17">
-        <v>10.61380618564781</v>
+        <v>7.385799302175101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>53.52324882936595</v>
+        <v>54.41318654417573</v>
       </c>
       <c r="H17">
-        <v>19.99966739518092</v>
+        <v>15.6232735642271</v>
       </c>
       <c r="I17">
-        <v>31.7377557327321</v>
+        <v>26.35340163610006</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.028028530075</v>
+        <v>13.95165824963214</v>
       </c>
       <c r="L17">
-        <v>10.22811737209134</v>
+        <v>7.812512664981631</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.18666358282044</v>
+        <v>16.25913471330698</v>
       </c>
       <c r="C18">
-        <v>5.813782606925113</v>
+        <v>8.014926065614279</v>
       </c>
       <c r="D18">
-        <v>6.385792104398795</v>
+        <v>8.402500621503718</v>
       </c>
       <c r="E18">
-        <v>10.61308430709408</v>
+        <v>7.352472302628381</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.42593892534357</v>
+        <v>53.97075357647427</v>
       </c>
       <c r="H18">
-        <v>19.99364475036627</v>
+        <v>15.55649371318076</v>
       </c>
       <c r="I18">
-        <v>31.72149171050128</v>
+        <v>26.22659792636177</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.99512506575438</v>
+        <v>13.77543908912234</v>
       </c>
       <c r="L18">
-        <v>10.22310033101211</v>
+        <v>7.755588499685507</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17077845259423</v>
+        <v>16.18475129901661</v>
       </c>
       <c r="C19">
-        <v>5.80114730429708</v>
+        <v>7.985163004383239</v>
       </c>
       <c r="D19">
-        <v>6.375375162607923</v>
+        <v>8.363936313165437</v>
       </c>
       <c r="E19">
-        <v>10.61286699474998</v>
+        <v>7.341236572892234</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.39313934145085</v>
+        <v>53.82103600806365</v>
       </c>
       <c r="H19">
-        <v>19.99165592799553</v>
+        <v>15.53402221013284</v>
       </c>
       <c r="I19">
-        <v>31.71606772339879</v>
+        <v>26.18388692784801</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.98401877377174</v>
+        <v>13.71538288505436</v>
       </c>
       <c r="L19">
-        <v>10.22143332959545</v>
+        <v>7.736324683590899</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.24238613645504</v>
+        <v>16.5175101205069</v>
       </c>
       <c r="C20">
-        <v>5.857719552713029</v>
+        <v>8.118495987054445</v>
       </c>
       <c r="D20">
-        <v>6.422234764990659</v>
+        <v>8.536490740183162</v>
       </c>
       <c r="E20">
-        <v>10.61395265686232</v>
+        <v>7.391990252110095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.54132844153118</v>
+        <v>54.49510927554159</v>
       </c>
       <c r="H20">
-        <v>20.00080594946781</v>
+        <v>15.63569930057646</v>
       </c>
       <c r="I20">
-        <v>31.74080509376063</v>
+        <v>26.37697620011009</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.03413423362634</v>
+        <v>13.98408713932643</v>
       </c>
       <c r="L20">
-        <v>10.22906094181382</v>
+        <v>7.82305245354991</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.48489218016162</v>
+        <v>17.60143236700134</v>
       </c>
       <c r="C21">
-        <v>6.04268175410864</v>
+        <v>8.556045901051853</v>
       </c>
       <c r="D21">
-        <v>6.579203377147071</v>
+        <v>9.099200130667464</v>
       </c>
       <c r="E21">
-        <v>10.61948177171653</v>
+        <v>7.565852535012187</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.04920007395022</v>
+        <v>56.7651851777171</v>
       </c>
       <c r="H21">
-        <v>20.03504175521354</v>
+        <v>15.98715280301044</v>
       </c>
       <c r="I21">
-        <v>31.82964838981852</v>
+        <v>27.04142495912374</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.20474060948947</v>
+        <v>14.860045453291</v>
       </c>
       <c r="L21">
-        <v>10.25687953517565</v>
+        <v>8.11500219235413</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.6445271302591</v>
+        <v>18.28500272601127</v>
       </c>
       <c r="C22">
-        <v>6.159672698459537</v>
+        <v>8.83443445661907</v>
       </c>
       <c r="D22">
-        <v>6.681248057929018</v>
+        <v>9.454587191109015</v>
       </c>
       <c r="E22">
-        <v>10.62449254253711</v>
+        <v>7.681954968456214</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>54.38818635502457</v>
+        <v>58.25241294361583</v>
       </c>
       <c r="H22">
-        <v>20.06000853956349</v>
+        <v>16.22438416551473</v>
       </c>
       <c r="I22">
-        <v>31.89194964399967</v>
+        <v>27.48766284651762</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.31771441193938</v>
+        <v>15.41299312507342</v>
       </c>
       <c r="L22">
-        <v>10.27667715127544</v>
+        <v>8.306105905240496</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.55924040958974</v>
+        <v>17.92240195260506</v>
       </c>
       <c r="C23">
-        <v>6.097593547172473</v>
+        <v>8.686532143534832</v>
       </c>
       <c r="D23">
-        <v>6.626846551756264</v>
+        <v>9.266020741610049</v>
       </c>
       <c r="E23">
-        <v>10.62169070564847</v>
+        <v>7.619763049691876</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.20664107081369</v>
+        <v>57.45833146581906</v>
       </c>
       <c r="H23">
-        <v>20.04644696142983</v>
+        <v>16.0970653620658</v>
       </c>
       <c r="I23">
-        <v>31.85831284418722</v>
+        <v>27.24838058958712</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.25729535644679</v>
+        <v>15.11963091204302</v>
       </c>
       <c r="L23">
-        <v>10.26596397094006</v>
+        <v>8.20408914566176</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.23844585759615</v>
+        <v>16.49936630787967</v>
       </c>
       <c r="C24">
-        <v>5.854631887995963</v>
+        <v>8.111213661181576</v>
       </c>
       <c r="D24">
-        <v>6.419662742057514</v>
+        <v>8.527079830337039</v>
       </c>
       <c r="E24">
-        <v>10.61388594734512</v>
+        <v>7.389190498694415</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>53.53315213856958</v>
+        <v>54.45807119405127</v>
       </c>
       <c r="H24">
-        <v>20.0002903058022</v>
+        <v>15.63007918241129</v>
       </c>
       <c r="I24">
-        <v>31.73942500341516</v>
+        <v>26.36631426212359</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.03137328755675</v>
+        <v>13.9694333419419</v>
       </c>
       <c r="L24">
-        <v>10.22863378806751</v>
+        <v>7.818287333170098</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.89916707205997</v>
+        <v>14.85410153281477</v>
       </c>
       <c r="C25">
-        <v>5.576402105090348</v>
+        <v>7.456942108236982</v>
       </c>
       <c r="D25">
-        <v>6.195105707013814</v>
+        <v>7.674782637205912</v>
       </c>
       <c r="E25">
-        <v>10.61149707226665</v>
+        <v>7.151213114679264</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.83938840873979</v>
+        <v>51.24029452667541</v>
       </c>
       <c r="H25">
-        <v>19.96170082492816</v>
+        <v>15.15742675004697</v>
       </c>
       <c r="I25">
-        <v>31.62957949552369</v>
+        <v>25.46458566964985</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.79520361055847</v>
+        <v>12.64190918240061</v>
       </c>
       <c r="L25">
-        <v>10.19540940689224</v>
+        <v>7.404272429023358</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54396187281613</v>
+        <v>24.61470125676523</v>
       </c>
       <c r="C2">
-        <v>6.945276380062608</v>
+        <v>22.19689122201996</v>
       </c>
       <c r="D2">
-        <v>6.997502811164671</v>
+        <v>7.193191550421208</v>
       </c>
       <c r="E2">
-        <v>6.985375925238979</v>
+        <v>29.37586724955314</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.89282800946153</v>
+        <v>47.15761067399773</v>
       </c>
       <c r="H2">
-        <v>14.83479488953934</v>
+        <v>3.260249945284132</v>
       </c>
       <c r="I2">
-        <v>24.8417001500185</v>
+        <v>3.375960380144429</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.48802944624526</v>
       </c>
       <c r="K2">
-        <v>11.58670778441755</v>
+        <v>18.95122196307986</v>
       </c>
       <c r="L2">
-        <v>7.102500747161441</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.59272341293729</v>
+        <v>22.96639278428041</v>
       </c>
       <c r="C3">
-        <v>6.579655395181802</v>
+        <v>20.69813316502112</v>
       </c>
       <c r="D3">
-        <v>6.506445748269302</v>
+        <v>6.688253184954362</v>
       </c>
       <c r="E3">
-        <v>6.87894359673079</v>
+        <v>27.382455859865</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.32017769011904</v>
+        <v>44.52188429960123</v>
       </c>
       <c r="H3">
-        <v>14.63135762311055</v>
+        <v>2.93853052756665</v>
       </c>
       <c r="I3">
-        <v>24.44443662660772</v>
+        <v>3.10124745534498</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.03971702326537</v>
       </c>
       <c r="K3">
-        <v>10.82176594495209</v>
+        <v>18.47031176956332</v>
       </c>
       <c r="L3">
-        <v>6.900716382232654</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00455203760613</v>
+        <v>21.89512733489639</v>
       </c>
       <c r="C4">
-        <v>6.345890066173824</v>
+        <v>19.73200285419912</v>
       </c>
       <c r="D4">
-        <v>6.219504020120931</v>
+        <v>6.361675031389518</v>
       </c>
       <c r="E4">
-        <v>6.816566863398705</v>
+        <v>26.09298622249937</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.36554262926323</v>
+        <v>42.84127055553566</v>
       </c>
       <c r="H4">
-        <v>14.51374584038536</v>
+        <v>2.735279296274731</v>
       </c>
       <c r="I4">
-        <v>24.21254419940077</v>
+        <v>2.929053718020421</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.76117127753547</v>
       </c>
       <c r="K4">
-        <v>10.32714020007934</v>
+        <v>18.17319011014207</v>
       </c>
       <c r="L4">
-        <v>6.778485562311882</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78093413045791</v>
+        <v>21.44329389145303</v>
       </c>
       <c r="C5">
-        <v>6.248313646789703</v>
+        <v>19.33755616315953</v>
       </c>
       <c r="D5">
-        <v>6.107535137626022</v>
+        <v>6.22570551726297</v>
       </c>
       <c r="E5">
-        <v>6.791900550464371</v>
+        <v>25.55044807616721</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>45.97961791933357</v>
+        <v>42.09399013315041</v>
       </c>
       <c r="H5">
-        <v>14.46762300186013</v>
+        <v>2.650685215821928</v>
       </c>
       <c r="I5">
-        <v>24.12103519338964</v>
+        <v>2.858209208300404</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.63694346483241</v>
       </c>
       <c r="K5">
-        <v>10.11925573419553</v>
+        <v>18.03118845549378</v>
       </c>
       <c r="L5">
-        <v>6.729146597733653</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7434981951044</v>
+        <v>21.36699810350705</v>
       </c>
       <c r="C6">
-        <v>6.231972023962502</v>
+        <v>19.28467694871141</v>
       </c>
       <c r="D6">
-        <v>6.08880830203507</v>
+        <v>6.206101360883229</v>
       </c>
       <c r="E6">
-        <v>6.787850315398873</v>
+        <v>25.45880329473557</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>45.9157327078252</v>
+        <v>41.91122568225758</v>
       </c>
       <c r="H6">
-        <v>14.46007241543495</v>
+        <v>2.636205881759143</v>
       </c>
       <c r="I6">
-        <v>24.10601959765912</v>
+        <v>2.846890122810338</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.60406606036381</v>
       </c>
       <c r="K6">
-        <v>10.08435370347297</v>
+        <v>17.9825283674496</v>
       </c>
       <c r="L6">
-        <v>6.720983921761984</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00155676675643</v>
+        <v>21.88811751586296</v>
       </c>
       <c r="C7">
-        <v>6.344583460656899</v>
+        <v>19.76221210800876</v>
       </c>
       <c r="D7">
-        <v>6.218003050284337</v>
+        <v>6.359715567538771</v>
       </c>
       <c r="E7">
-        <v>6.816231151289374</v>
+        <v>26.08425113251305</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.36032491383104</v>
+        <v>42.67649144709804</v>
       </c>
       <c r="H7">
-        <v>14.51311654556907</v>
+        <v>2.733221925322016</v>
       </c>
       <c r="I7">
-        <v>24.21129802456892</v>
+        <v>2.92905889852428</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.72651214094831</v>
       </c>
       <c r="K7">
-        <v>10.32436224584828</v>
+        <v>18.10334083767291</v>
       </c>
       <c r="L7">
-        <v>6.777818181668321</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.22252439479749</v>
+        <v>24.05732983019101</v>
       </c>
       <c r="C8">
-        <v>6.821141313458193</v>
+        <v>21.73276401622267</v>
       </c>
       <c r="D8">
-        <v>6.831507150754505</v>
+        <v>7.02231647267738</v>
       </c>
       <c r="E8">
-        <v>6.948064322204425</v>
+        <v>28.7001302207186</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>48.34849303804759</v>
+        <v>46.07052616057214</v>
       </c>
       <c r="H8">
-        <v>14.76311680264134</v>
+        <v>3.149295574327846</v>
       </c>
       <c r="I8">
-        <v>24.70220651881392</v>
+        <v>3.28245976571238</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.29221170914753</v>
       </c>
       <c r="K8">
-        <v>11.32810333244698</v>
+        <v>18.69842623547058</v>
       </c>
       <c r="L8">
-        <v>7.032610328197631</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.42340309405373</v>
+        <v>27.84802526759979</v>
       </c>
       <c r="C9">
-        <v>7.681937238173822</v>
+        <v>25.18172485198782</v>
       </c>
       <c r="D9">
-        <v>7.969463248041244</v>
+        <v>8.19292429324568</v>
       </c>
       <c r="E9">
-        <v>7.229931221921306</v>
+        <v>33.31989959658996</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.32133395943794</v>
+        <v>52.46955770312383</v>
       </c>
       <c r="H9">
-        <v>15.31261378269135</v>
+        <v>3.923911411606182</v>
       </c>
       <c r="I9">
-        <v>25.76185435451227</v>
+        <v>3.949685265943331</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.42827359373768</v>
       </c>
       <c r="K9">
-        <v>13.10097489454626</v>
+        <v>19.96672630327918</v>
       </c>
       <c r="L9">
-        <v>7.543353479184627</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.89409725699706</v>
+        <v>30.34808680477371</v>
       </c>
       <c r="C10">
-        <v>8.269960880766153</v>
+        <v>27.43896001281589</v>
       </c>
       <c r="D10">
-        <v>8.731881492309594</v>
+        <v>8.975606439955206</v>
       </c>
       <c r="E10">
-        <v>7.45093358580591</v>
+        <v>35.52740492105513</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.27112590422264</v>
+        <v>56.13992201250476</v>
       </c>
       <c r="H10">
-        <v>15.75431714574479</v>
+        <v>4.427335934234716</v>
       </c>
       <c r="I10">
-        <v>26.60172331818253</v>
+        <v>4.413156393872065</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.08011566269482</v>
       </c>
       <c r="K10">
-        <v>14.28830334394266</v>
+        <v>20.60310998168032</v>
       </c>
       <c r="L10">
-        <v>7.922880345221546</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53265568717693</v>
+        <v>31.35779700572182</v>
       </c>
       <c r="C11">
-        <v>8.528139319788821</v>
+        <v>27.79197956994044</v>
       </c>
       <c r="D11">
-        <v>9.063465761106318</v>
+        <v>9.299113854018188</v>
       </c>
       <c r="E11">
-        <v>7.554442162750946</v>
+        <v>28.97602865548256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.61787351828068</v>
+        <v>52.01323037049428</v>
       </c>
       <c r="H11">
-        <v>15.96394443475246</v>
+        <v>4.766283733773403</v>
       </c>
       <c r="I11">
-        <v>26.99767763528534</v>
+        <v>4.504903194833306</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.06184566654913</v>
       </c>
       <c r="K11">
-        <v>14.80443369560472</v>
+        <v>18.61763795226653</v>
       </c>
       <c r="L11">
-        <v>8.096064823629847</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77019313795818</v>
+        <v>31.70856567289038</v>
       </c>
       <c r="C12">
-        <v>8.624602215083227</v>
+        <v>27.59482364603725</v>
       </c>
       <c r="D12">
-        <v>9.186900636768167</v>
+        <v>9.413250783421262</v>
       </c>
       <c r="E12">
-        <v>7.594062907110716</v>
+        <v>23.05718206598103</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.12847357269563</v>
+        <v>47.92736323738534</v>
       </c>
       <c r="H12">
-        <v>16.04461481592687</v>
+        <v>5.518282052258898</v>
       </c>
       <c r="I12">
-        <v>27.14966699125056</v>
+        <v>4.496769249589302</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.10217828040145</v>
       </c>
       <c r="K12">
-        <v>14.99652025574752</v>
+        <v>16.90677408786524</v>
       </c>
       <c r="L12">
-        <v>8.161698076911584</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.71922328725271</v>
+        <v>31.5853297663207</v>
       </c>
       <c r="C13">
-        <v>8.603884515536533</v>
+        <v>26.99968581820319</v>
       </c>
       <c r="D13">
-        <v>9.160410355706389</v>
+        <v>9.37670865558556</v>
       </c>
       <c r="E13">
-        <v>7.585511027660345</v>
+        <v>17.16780377603014</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.01847992027308</v>
+        <v>43.30777646190308</v>
       </c>
       <c r="H13">
-        <v>16.02718299400147</v>
+        <v>6.480962725896597</v>
       </c>
       <c r="I13">
-        <v>27.11684123531105</v>
+        <v>4.412289389067961</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.06787582539031</v>
       </c>
       <c r="K13">
-        <v>14.95529894021073</v>
+        <v>15.19511021067255</v>
       </c>
       <c r="L13">
-        <v>8.147560778001329</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55228296448409</v>
+        <v>31.28446283582511</v>
       </c>
       <c r="C14">
-        <v>8.536101269238582</v>
+        <v>26.40588904198453</v>
       </c>
       <c r="D14">
-        <v>9.073663110663595</v>
+        <v>9.283039738365005</v>
       </c>
       <c r="E14">
-        <v>7.557693292342645</v>
+        <v>13.13858688873927</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.65986878332806</v>
+        <v>39.73631562937889</v>
       </c>
       <c r="H14">
-        <v>15.97055515780757</v>
+        <v>7.244718985861947</v>
       </c>
       <c r="I14">
-        <v>27.01014046614154</v>
+        <v>4.32080927221686</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.29761049597078</v>
       </c>
       <c r="K14">
-        <v>14.82030358716913</v>
+        <v>13.98970624373754</v>
       </c>
       <c r="L14">
-        <v>8.101463582088376</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.44947444517081</v>
+        <v>31.10778787300169</v>
       </c>
       <c r="C15">
-        <v>8.494413520180725</v>
+        <v>26.18346679254442</v>
       </c>
       <c r="D15">
-        <v>9.020252625900152</v>
+        <v>9.227599279123901</v>
       </c>
       <c r="E15">
-        <v>7.540709323193472</v>
+        <v>12.16537743658012</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.44028800094772</v>
+        <v>38.69219240459402</v>
       </c>
       <c r="H15">
-        <v>15.93603809769066</v>
+        <v>7.418877398076286</v>
       </c>
       <c r="I15">
-        <v>26.94505187927897</v>
+        <v>4.281308313233508</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.08376317773504</v>
       </c>
       <c r="K15">
-        <v>14.73718014962518</v>
+        <v>13.67671451853508</v>
       </c>
       <c r="L15">
-        <v>8.073233892830102</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85176211696574</v>
+        <v>30.10887114607338</v>
       </c>
       <c r="C16">
-        <v>8.252903714460929</v>
+        <v>25.35695186603238</v>
       </c>
       <c r="D16">
-        <v>8.709910232786248</v>
+        <v>8.91288516398726</v>
       </c>
       <c r="E16">
-        <v>7.444228559396985</v>
+        <v>11.91979383892188</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.1832020139455</v>
+        <v>37.65334749698792</v>
       </c>
       <c r="H16">
-        <v>15.7407956590863</v>
+        <v>7.117658497831006</v>
       </c>
       <c r="I16">
-        <v>26.57613056335679</v>
+        <v>4.104136393173262</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.95773056474478</v>
       </c>
       <c r="K16">
-        <v>14.25409767188118</v>
+        <v>13.68171716836644</v>
       </c>
       <c r="L16">
-        <v>7.911570795117107</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.47735732477725</v>
+        <v>29.49191982879567</v>
       </c>
       <c r="C17">
-        <v>8.102381874391797</v>
+        <v>25.04126673328033</v>
       </c>
       <c r="D17">
-        <v>8.515664476844243</v>
+        <v>8.718376008763018</v>
       </c>
       <c r="E17">
-        <v>7.385799302175101</v>
+        <v>13.91698648234554</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.41318654417573</v>
+        <v>38.84426969763272</v>
       </c>
       <c r="H17">
-        <v>15.6232735642271</v>
+        <v>6.425003700104057</v>
       </c>
       <c r="I17">
-        <v>26.35340163610006</v>
+        <v>4.015463018729159</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.27892928991207</v>
       </c>
       <c r="K17">
-        <v>13.95165824963214</v>
+        <v>14.32156063275178</v>
       </c>
       <c r="L17">
-        <v>7.812512664981631</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.25913471330698</v>
+        <v>29.15068482210688</v>
       </c>
       <c r="C18">
-        <v>8.014926065614279</v>
+        <v>25.12185759040686</v>
       </c>
       <c r="D18">
-        <v>8.402500621503718</v>
+        <v>8.609456315719099</v>
       </c>
       <c r="E18">
-        <v>7.352472302628381</v>
+        <v>18.41225489087568</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.97075357647427</v>
+        <v>42.20453298771882</v>
       </c>
       <c r="H18">
-        <v>15.55649371318076</v>
+        <v>5.409356212425187</v>
       </c>
       <c r="I18">
-        <v>26.22659792636177</v>
+        <v>3.99717259524046</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.04655913317291</v>
       </c>
       <c r="K18">
-        <v>13.77543908912234</v>
+        <v>15.65115901319005</v>
       </c>
       <c r="L18">
-        <v>7.755588499685507</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.18475129901661</v>
+        <v>29.06506140830491</v>
       </c>
       <c r="C19">
-        <v>7.985163004383239</v>
+        <v>25.57554992536272</v>
       </c>
       <c r="D19">
-        <v>8.363936313165437</v>
+        <v>8.579567417346899</v>
       </c>
       <c r="E19">
-        <v>7.341236572892234</v>
+        <v>24.67814640034029</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.82103600806365</v>
+        <v>46.77922028693691</v>
       </c>
       <c r="H19">
-        <v>15.53402221013284</v>
+        <v>4.478210312396396</v>
       </c>
       <c r="I19">
-        <v>26.18388692784801</v>
+        <v>4.049838638796388</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.06528620431865</v>
       </c>
       <c r="K19">
-        <v>13.71538288505436</v>
+        <v>17.3665017678855</v>
       </c>
       <c r="L19">
-        <v>7.736324683590899</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.5175101205069</v>
+        <v>29.7067592510513</v>
       </c>
       <c r="C20">
-        <v>8.118495987054445</v>
+        <v>26.94037460000147</v>
       </c>
       <c r="D20">
-        <v>8.536490740183162</v>
+        <v>8.774468822293441</v>
       </c>
       <c r="E20">
-        <v>7.391990252110095</v>
+        <v>34.91481930778653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.49510927554159</v>
+        <v>54.78013942933701</v>
       </c>
       <c r="H20">
-        <v>15.63569930057646</v>
+        <v>4.291201637141911</v>
       </c>
       <c r="I20">
-        <v>26.37697620011009</v>
+        <v>4.293631352039695</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.81440161057463</v>
       </c>
       <c r="K20">
-        <v>13.98408713932643</v>
+        <v>20.23536970075203</v>
       </c>
       <c r="L20">
-        <v>7.82305245354991</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.60143236700134</v>
+        <v>31.55350672882736</v>
       </c>
       <c r="C21">
-        <v>8.556045901051853</v>
+        <v>28.70841879825815</v>
       </c>
       <c r="D21">
-        <v>9.099200130667464</v>
+        <v>9.355367665328695</v>
       </c>
       <c r="E21">
-        <v>7.565852535012187</v>
+        <v>37.89714406857155</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.7651851777171</v>
+        <v>58.60930431130848</v>
       </c>
       <c r="H21">
-        <v>15.98715280301044</v>
+        <v>4.739323507717267</v>
       </c>
       <c r="I21">
-        <v>27.04142495912374</v>
+        <v>4.668229254525339</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.55900783920866</v>
       </c>
       <c r="K21">
-        <v>14.860045453291</v>
+        <v>21.16244422490159</v>
       </c>
       <c r="L21">
-        <v>8.11500219235413</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.28500272601127</v>
+        <v>32.70957157809937</v>
       </c>
       <c r="C22">
-        <v>8.83443445661907</v>
+        <v>29.75601253301995</v>
       </c>
       <c r="D22">
-        <v>9.454587191109015</v>
+        <v>9.721665507810132</v>
       </c>
       <c r="E22">
-        <v>7.681954968456214</v>
+        <v>39.33911706624158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.25241294361583</v>
+        <v>60.86402786928745</v>
       </c>
       <c r="H22">
-        <v>16.22438416551473</v>
+        <v>5.008068422605749</v>
       </c>
       <c r="I22">
-        <v>27.48766284651762</v>
+        <v>4.904122644093985</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.00018261680524</v>
       </c>
       <c r="K22">
-        <v>15.41299312507342</v>
+        <v>21.71054391487275</v>
       </c>
       <c r="L22">
-        <v>8.306105905240496</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.92240195260506</v>
+        <v>32.09797540469644</v>
       </c>
       <c r="C23">
-        <v>8.686532143534832</v>
+        <v>29.17030543336272</v>
       </c>
       <c r="D23">
-        <v>9.266020741610049</v>
+        <v>9.527493148816296</v>
       </c>
       <c r="E23">
-        <v>7.619763049691876</v>
+        <v>38.57575220971133</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.45833146581906</v>
+        <v>59.80209731078634</v>
       </c>
       <c r="H23">
-        <v>16.0970653620658</v>
+        <v>4.865831442049075</v>
       </c>
       <c r="I23">
-        <v>27.24838058958712</v>
+        <v>4.777621462940086</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.79726904518252</v>
       </c>
       <c r="K23">
-        <v>15.11963091204302</v>
+        <v>21.48723234859942</v>
       </c>
       <c r="L23">
-        <v>8.20408914566176</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.49936630787967</v>
+        <v>29.68394175730177</v>
       </c>
       <c r="C24">
-        <v>8.111213661181576</v>
+        <v>26.92546631550679</v>
       </c>
       <c r="D24">
-        <v>8.527079830337039</v>
+        <v>8.766562040983779</v>
       </c>
       <c r="E24">
-        <v>7.389190498694415</v>
+        <v>35.57975553395934</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.45807119405127</v>
+        <v>55.46038199268103</v>
       </c>
       <c r="H24">
-        <v>15.63007918241129</v>
+        <v>4.32014448952771</v>
       </c>
       <c r="I24">
-        <v>26.36631426212359</v>
+        <v>4.29722629987463</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.97163492646049</v>
       </c>
       <c r="K24">
-        <v>13.9694333419419</v>
+        <v>20.53323381038629</v>
       </c>
       <c r="L24">
-        <v>7.818287333170098</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.85410153281477</v>
+        <v>26.86990593980424</v>
       </c>
       <c r="C25">
-        <v>7.456942108236982</v>
+        <v>24.33935767781433</v>
       </c>
       <c r="D25">
-        <v>7.674782637205912</v>
+        <v>7.889457095113454</v>
       </c>
       <c r="E25">
-        <v>7.151213114679264</v>
+        <v>32.12136751448058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.24029452667541</v>
+        <v>50.5555752941431</v>
       </c>
       <c r="H25">
-        <v>15.15742675004697</v>
+        <v>3.717034776204025</v>
       </c>
       <c r="I25">
-        <v>25.46458566964985</v>
+        <v>3.772576389436349</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.07032151063164</v>
       </c>
       <c r="K25">
-        <v>12.64190918240061</v>
+        <v>19.51118890087674</v>
       </c>
       <c r="L25">
-        <v>7.404272429023358</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.61470125676523</v>
+        <v>24.58508684589604</v>
       </c>
       <c r="C2">
-        <v>22.19689122201996</v>
+        <v>23.32181811076487</v>
       </c>
       <c r="D2">
-        <v>7.193191550421208</v>
+        <v>7.185573573547625</v>
       </c>
       <c r="E2">
-        <v>29.37586724955314</v>
+        <v>29.29567048590071</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.15761067399773</v>
+        <v>41.34167402901464</v>
       </c>
       <c r="H2">
-        <v>3.260249945284132</v>
+        <v>3.210585496841181</v>
       </c>
       <c r="I2">
-        <v>3.375960380144429</v>
+        <v>3.32045033786078</v>
       </c>
       <c r="J2">
-        <v>13.48802944624526</v>
+        <v>12.83409650999854</v>
       </c>
       <c r="K2">
-        <v>18.95122196307986</v>
+        <v>16.50657105956455</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.38602251130813</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.34655811012613</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.96639278428041</v>
+        <v>22.95880455063665</v>
       </c>
       <c r="C3">
-        <v>20.69813316502112</v>
+        <v>21.69719351440214</v>
       </c>
       <c r="D3">
-        <v>6.688253184954362</v>
+        <v>6.684155960869777</v>
       </c>
       <c r="E3">
-        <v>27.382455859865</v>
+        <v>27.3360964630527</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.52188429960123</v>
+        <v>39.28910215067788</v>
       </c>
       <c r="H3">
-        <v>2.93853052756665</v>
+        <v>2.909709365892502</v>
       </c>
       <c r="I3">
-        <v>3.10124745534498</v>
+        <v>3.0875358006762</v>
       </c>
       <c r="J3">
-        <v>13.03971702326537</v>
+        <v>12.4993012705453</v>
       </c>
       <c r="K3">
-        <v>18.47031176956332</v>
+        <v>16.31968239811216</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.39954742562961</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.989602006415016</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.89512733489639</v>
+        <v>21.90099453922242</v>
       </c>
       <c r="C4">
-        <v>19.73200285419912</v>
+        <v>20.64752262720158</v>
       </c>
       <c r="D4">
-        <v>6.361675031389518</v>
+        <v>6.35952532364167</v>
       </c>
       <c r="E4">
-        <v>26.09298622249937</v>
+        <v>26.06738903670614</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.84127055553566</v>
+        <v>37.98802104606364</v>
       </c>
       <c r="H4">
-        <v>2.735279296274731</v>
+        <v>2.719348586093295</v>
       </c>
       <c r="I4">
-        <v>2.929053718020421</v>
+        <v>2.941514944539194</v>
       </c>
       <c r="J4">
-        <v>12.76117127753547</v>
+        <v>12.28885638359041</v>
       </c>
       <c r="K4">
-        <v>18.17319011014207</v>
+        <v>16.20540057795433</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.40223727351396</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.791130505508756</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.44329389145303</v>
+        <v>21.45469091091259</v>
       </c>
       <c r="C5">
-        <v>19.33755616315953</v>
+        <v>20.21625682834856</v>
       </c>
       <c r="D5">
-        <v>6.22570551726297</v>
+        <v>6.224705902355759</v>
       </c>
       <c r="E5">
-        <v>25.55044807616721</v>
+        <v>25.53342263692578</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.09399013315041</v>
+        <v>37.40702627668379</v>
       </c>
       <c r="H5">
-        <v>2.650685215821928</v>
+        <v>2.640087700656949</v>
       </c>
       <c r="I5">
-        <v>2.858209208300404</v>
+        <v>2.881801330075342</v>
       </c>
       <c r="J5">
-        <v>12.63694346483241</v>
+        <v>12.19364634307294</v>
       </c>
       <c r="K5">
-        <v>18.03118845549378</v>
+        <v>16.14237889767049</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.38901640874303</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.70348828013366</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.36699810350705</v>
+        <v>21.37935814010756</v>
       </c>
       <c r="C6">
-        <v>19.28467694871141</v>
+        <v>20.15569285778418</v>
       </c>
       <c r="D6">
-        <v>6.206101360883229</v>
+        <v>6.20519739770818</v>
       </c>
       <c r="E6">
-        <v>25.45880329473557</v>
+        <v>25.44329960274172</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.91122568225758</v>
+        <v>37.25998290908748</v>
       </c>
       <c r="H6">
-        <v>2.636205881759143</v>
+        <v>2.626554658747982</v>
       </c>
       <c r="I6">
-        <v>2.846890122810338</v>
+        <v>2.872775322106554</v>
       </c>
       <c r="J6">
-        <v>12.60406606036381</v>
+        <v>12.16765039975899</v>
       </c>
       <c r="K6">
-        <v>17.9825283674496</v>
+        <v>16.11176602832466</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.37101113640226</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.674279799998585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.88811751586296</v>
+        <v>21.89371509654011</v>
       </c>
       <c r="C7">
-        <v>19.76221210800876</v>
+        <v>20.6584115583308</v>
       </c>
       <c r="D7">
-        <v>6.359715567538771</v>
+        <v>6.357513617367013</v>
       </c>
       <c r="E7">
-        <v>26.08425113251305</v>
+        <v>26.0580318536759</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.67649144709804</v>
+        <v>37.9009748961799</v>
       </c>
       <c r="H7">
-        <v>2.733221925322016</v>
+        <v>2.716898376571645</v>
       </c>
       <c r="I7">
-        <v>2.92905889852428</v>
+        <v>2.94189715824889</v>
       </c>
       <c r="J7">
-        <v>12.72651214094831</v>
+        <v>12.18837378008024</v>
       </c>
       <c r="K7">
-        <v>18.10334083767291</v>
+        <v>16.1245464762393</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.34032764904163</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.729456827072926</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.05732983019101</v>
+        <v>24.03405012221707</v>
       </c>
       <c r="C8">
-        <v>21.73276401622267</v>
+        <v>22.76517311767184</v>
       </c>
       <c r="D8">
-        <v>7.02231647267738</v>
+        <v>7.015701853127592</v>
       </c>
       <c r="E8">
-        <v>28.7001302207186</v>
+        <v>28.62887068001158</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.07052616057214</v>
+        <v>40.64866014374061</v>
       </c>
       <c r="H8">
-        <v>3.149295574327846</v>
+        <v>3.105071587067799</v>
       </c>
       <c r="I8">
-        <v>3.28245976571238</v>
+        <v>3.239848430563474</v>
       </c>
       <c r="J8">
-        <v>13.29221170914753</v>
+        <v>12.45444396120408</v>
       </c>
       <c r="K8">
-        <v>18.69842623547058</v>
+        <v>16.28952870462839</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.27864373533435</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.09917248439435</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.84802526759979</v>
+        <v>27.76774077791043</v>
       </c>
       <c r="C9">
-        <v>25.18172485198782</v>
+        <v>26.49206362295805</v>
       </c>
       <c r="D9">
-        <v>8.19292429324568</v>
+        <v>8.175918823048214</v>
       </c>
       <c r="E9">
-        <v>33.31989959658996</v>
+        <v>33.16163954277393</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.46955770312383</v>
+        <v>45.71811813215639</v>
       </c>
       <c r="H9">
-        <v>3.923911411606182</v>
+        <v>3.827213780623607</v>
       </c>
       <c r="I9">
-        <v>3.949685265943331</v>
+        <v>3.803181496365316</v>
       </c>
       <c r="J9">
-        <v>14.42827359373768</v>
+        <v>13.24581329099124</v>
       </c>
       <c r="K9">
-        <v>19.96672630327918</v>
+        <v>16.80812860249594</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.25477749903103</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.12324249029331</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.34808680477371</v>
+        <v>30.22274999276679</v>
       </c>
       <c r="C10">
-        <v>27.43896001281589</v>
+        <v>28.8321603575105</v>
       </c>
       <c r="D10">
-        <v>8.975606439955206</v>
+        <v>8.949073270987395</v>
       </c>
       <c r="E10">
-        <v>35.52740492105513</v>
+        <v>35.29921417463886</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.13992201250476</v>
+        <v>48.89973268284</v>
       </c>
       <c r="H10">
-        <v>4.427335934234716</v>
+        <v>4.290638734894917</v>
       </c>
       <c r="I10">
-        <v>4.413156393872065</v>
+        <v>4.190575146009868</v>
       </c>
       <c r="J10">
-        <v>15.08011566269482</v>
+        <v>13.30930945291319</v>
       </c>
       <c r="K10">
-        <v>20.60310998168032</v>
+        <v>16.8556675100007</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.97527496910338</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.66801341015738</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.35779700572182</v>
+        <v>31.22338413002261</v>
       </c>
       <c r="C11">
-        <v>27.79197956994044</v>
+        <v>28.90510185945598</v>
       </c>
       <c r="D11">
-        <v>9.299113854018188</v>
+        <v>9.269722560084274</v>
       </c>
       <c r="E11">
-        <v>28.97602865548256</v>
+        <v>28.71912900518892</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.01323037049428</v>
+        <v>46.01065062289203</v>
       </c>
       <c r="H11">
-        <v>4.766283733773403</v>
+        <v>4.636564995796683</v>
       </c>
       <c r="I11">
-        <v>4.504903194833306</v>
+        <v>4.266277066555866</v>
       </c>
       <c r="J11">
-        <v>14.06184566654913</v>
+        <v>11.71858692796981</v>
       </c>
       <c r="K11">
-        <v>18.61763795226653</v>
+        <v>15.0004412182494</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.58002835991976</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.36223300937944</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.70856567289038</v>
+        <v>31.5759391952818</v>
       </c>
       <c r="C12">
-        <v>27.59482364603725</v>
+        <v>28.49693983359468</v>
       </c>
       <c r="D12">
-        <v>9.413250783421262</v>
+        <v>9.383702639908815</v>
       </c>
       <c r="E12">
-        <v>23.05718206598103</v>
+        <v>22.779841159215</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.92736323738534</v>
+        <v>42.88904837212624</v>
       </c>
       <c r="H12">
-        <v>5.518282052258898</v>
+        <v>5.412175171121402</v>
       </c>
       <c r="I12">
-        <v>4.496769249589302</v>
+        <v>4.259164455387899</v>
       </c>
       <c r="J12">
-        <v>13.10217828040145</v>
+        <v>10.64332087803582</v>
       </c>
       <c r="K12">
-        <v>16.90677408786524</v>
+        <v>13.60714485408632</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.6239508626986</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.261127584031351</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.5853297663207</v>
+        <v>31.46366660620858</v>
       </c>
       <c r="C13">
-        <v>26.99968581820319</v>
+        <v>27.74791124048507</v>
       </c>
       <c r="D13">
-        <v>9.37670865558556</v>
+        <v>9.349334218341484</v>
       </c>
       <c r="E13">
-        <v>17.16780377603014</v>
+        <v>16.87049537260872</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.30777646190308</v>
+        <v>39.01620416855095</v>
       </c>
       <c r="H13">
-        <v>6.480962725896597</v>
+        <v>6.401201830338679</v>
       </c>
       <c r="I13">
-        <v>4.412289389067961</v>
+        <v>4.191756914536733</v>
       </c>
       <c r="J13">
-        <v>12.06787582539031</v>
+        <v>9.975845084581634</v>
       </c>
       <c r="K13">
-        <v>15.19511021067255</v>
+        <v>12.452328654238</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.90450857420503</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.221262514982049</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.28446283582511</v>
+        <v>31.17413325598739</v>
       </c>
       <c r="C14">
-        <v>26.40588904198453</v>
+        <v>27.06731748952366</v>
       </c>
       <c r="D14">
-        <v>9.283039738365005</v>
+        <v>9.258128674301851</v>
       </c>
       <c r="E14">
-        <v>13.13858688873927</v>
+        <v>12.81905550018229</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.73631562937889</v>
+        <v>35.88617738676312</v>
       </c>
       <c r="H14">
-        <v>7.244718985861947</v>
+        <v>7.181535182196168</v>
       </c>
       <c r="I14">
-        <v>4.32080927221686</v>
+        <v>4.119245776438021</v>
       </c>
       <c r="J14">
-        <v>11.29761049597078</v>
+        <v>9.664264083453878</v>
       </c>
       <c r="K14">
-        <v>13.98970624373754</v>
+        <v>11.74330290605499</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.49416490449527</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.510775292998696</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.10778787300169</v>
+        <v>31.00224821708129</v>
       </c>
       <c r="C15">
-        <v>26.18346679254442</v>
+        <v>26.83222467130748</v>
       </c>
       <c r="D15">
-        <v>9.227599279123901</v>
+        <v>9.203772529066221</v>
       </c>
       <c r="E15">
-        <v>12.16537743658012</v>
+        <v>11.84294249677819</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.69219240459402</v>
+        <v>34.91946654943342</v>
       </c>
       <c r="H15">
-        <v>7.418877398076286</v>
+        <v>7.360263451376467</v>
       </c>
       <c r="I15">
-        <v>4.281308313233508</v>
+        <v>4.088405077113158</v>
       </c>
       <c r="J15">
-        <v>11.08376317773504</v>
+        <v>9.646772033185741</v>
       </c>
       <c r="K15">
-        <v>13.67671451853508</v>
+        <v>11.59652113092143</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.41904461842897</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.335579374693389</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.10887114607338</v>
+        <v>30.02282554471154</v>
       </c>
       <c r="C16">
-        <v>25.35695186603238</v>
+        <v>26.08715764200443</v>
       </c>
       <c r="D16">
-        <v>8.91288516398726</v>
+        <v>8.893565722114687</v>
       </c>
       <c r="E16">
-        <v>11.91979383892188</v>
+        <v>11.64943519172013</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.65334749698792</v>
+        <v>33.58732616232037</v>
       </c>
       <c r="H16">
-        <v>7.117658497831006</v>
+        <v>7.068702058938015</v>
       </c>
       <c r="I16">
-        <v>4.104136393173262</v>
+        <v>3.946211865368466</v>
       </c>
       <c r="J16">
-        <v>10.95773056474478</v>
+        <v>10.2087661882079</v>
       </c>
       <c r="K16">
-        <v>13.68171716836644</v>
+        <v>11.93526256019164</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.70634843202836</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.432223797414523</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.49191982879567</v>
+        <v>29.41457450497646</v>
       </c>
       <c r="C17">
-        <v>25.04126673328033</v>
+        <v>25.86644144330361</v>
       </c>
       <c r="D17">
-        <v>8.718376008763018</v>
+        <v>8.701067248233551</v>
       </c>
       <c r="E17">
-        <v>13.91698648234554</v>
+        <v>13.69476426160417</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.84426969763272</v>
+        <v>34.37902013573277</v>
       </c>
       <c r="H17">
-        <v>6.425003700104057</v>
+        <v>6.376138462405074</v>
       </c>
       <c r="I17">
-        <v>4.015463018729159</v>
+        <v>3.873806760179911</v>
       </c>
       <c r="J17">
-        <v>11.27892928991207</v>
+        <v>10.7430922093871</v>
       </c>
       <c r="K17">
-        <v>14.32156063275178</v>
+        <v>12.54527185358048</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.1462179666737</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.857321045962734</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.15068482210688</v>
+        <v>29.07395660256922</v>
       </c>
       <c r="C18">
-        <v>25.12185759040686</v>
+        <v>26.09166872426908</v>
       </c>
       <c r="D18">
-        <v>8.609456315719099</v>
+        <v>8.59245080194372</v>
       </c>
       <c r="E18">
-        <v>18.41225489087568</v>
+        <v>18.22439642207249</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.20453298771882</v>
+        <v>37.0865215326258</v>
       </c>
       <c r="H18">
-        <v>5.409356212425187</v>
+        <v>5.350475391708605</v>
       </c>
       <c r="I18">
-        <v>3.99717259524046</v>
+        <v>3.856554776963292</v>
       </c>
       <c r="J18">
-        <v>12.04655913317291</v>
+        <v>11.46145704294431</v>
       </c>
       <c r="K18">
-        <v>15.65115901319005</v>
+        <v>13.56755082437844</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.85386966996361</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.682574006974155</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.06506140830491</v>
+        <v>28.98178865690542</v>
       </c>
       <c r="C19">
-        <v>25.57554992536272</v>
+        <v>26.72050161250086</v>
       </c>
       <c r="D19">
-        <v>8.579567417346899</v>
+        <v>8.561450373770182</v>
       </c>
       <c r="E19">
-        <v>24.67814640034029</v>
+        <v>24.50167085676746</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.77922028693691</v>
+        <v>40.84542009487891</v>
       </c>
       <c r="H19">
-        <v>4.478210312396396</v>
+        <v>4.397508605772834</v>
       </c>
       <c r="I19">
-        <v>4.049838638796388</v>
+        <v>3.899258173211932</v>
       </c>
       <c r="J19">
-        <v>13.06528620431865</v>
+        <v>12.28756406154027</v>
       </c>
       <c r="K19">
-        <v>17.3665017678855</v>
+        <v>14.8169756427366</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.71447419914139</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.723443462660072</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.7067592510513</v>
+        <v>29.59559479421395</v>
       </c>
       <c r="C20">
-        <v>26.94037460000147</v>
+        <v>28.34365892880457</v>
       </c>
       <c r="D20">
-        <v>8.774468822293441</v>
+        <v>8.751041549434927</v>
       </c>
       <c r="E20">
-        <v>34.91481930778653</v>
+        <v>34.70940325748172</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.78013942933701</v>
+        <v>47.56101901445377</v>
       </c>
       <c r="H20">
-        <v>4.291201637141911</v>
+        <v>4.167494489905102</v>
       </c>
       <c r="I20">
-        <v>4.293631352039695</v>
+        <v>4.09763590595438</v>
       </c>
       <c r="J20">
-        <v>14.81440161057463</v>
+        <v>13.44125355349126</v>
       </c>
       <c r="K20">
-        <v>20.23536970075203</v>
+        <v>16.76149230894007</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.99348854354931</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.45516522923333</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.55350672882736</v>
+        <v>31.39590904917416</v>
       </c>
       <c r="C21">
-        <v>28.70841879825815</v>
+        <v>29.9973931619762</v>
       </c>
       <c r="D21">
-        <v>9.355367665328695</v>
+        <v>9.321567960170484</v>
       </c>
       <c r="E21">
-        <v>37.89714406857155</v>
+        <v>37.61788778816243</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.60930431130848</v>
+        <v>51.67254363691358</v>
       </c>
       <c r="H21">
-        <v>4.739323507717267</v>
+        <v>4.572323277515418</v>
       </c>
       <c r="I21">
-        <v>4.668229254525339</v>
+        <v>4.395284738131043</v>
       </c>
       <c r="J21">
-        <v>15.55900783920866</v>
+        <v>12.51628181508031</v>
       </c>
       <c r="K21">
-        <v>21.16244422490159</v>
+        <v>16.70163384953238</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.71163069494231</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.81048437914654</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.70957157809937</v>
+        <v>32.52103197488449</v>
       </c>
       <c r="C22">
-        <v>29.75601253301995</v>
+        <v>30.94988976158547</v>
       </c>
       <c r="D22">
-        <v>9.721665507810132</v>
+        <v>9.68057359556199</v>
       </c>
       <c r="E22">
-        <v>39.33911706624158</v>
+        <v>39.01064393282393</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.86402786928745</v>
+        <v>54.20303371332825</v>
       </c>
       <c r="H22">
-        <v>5.008068422605749</v>
+        <v>4.813177937235574</v>
       </c>
       <c r="I22">
-        <v>4.904122644093985</v>
+        <v>4.580534705613768</v>
       </c>
       <c r="J22">
-        <v>16.00018261680524</v>
+        <v>11.81782988870187</v>
       </c>
       <c r="K22">
-        <v>21.71054391487275</v>
+        <v>16.60387845360594</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.48484720926022</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.00234075767601</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.09797540469644</v>
+        <v>31.92676690952453</v>
       </c>
       <c r="C23">
-        <v>29.17030543336272</v>
+        <v>30.44661344728931</v>
       </c>
       <c r="D23">
-        <v>9.527493148816296</v>
+        <v>9.490538114475994</v>
       </c>
       <c r="E23">
-        <v>38.57575220971133</v>
+        <v>38.27513265808232</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.80209731078634</v>
+        <v>52.86182388462638</v>
       </c>
       <c r="H23">
-        <v>4.865831442049075</v>
+        <v>4.686757112164059</v>
       </c>
       <c r="I23">
-        <v>4.777621462940086</v>
+        <v>4.481245112296435</v>
       </c>
       <c r="J23">
-        <v>15.79726904518252</v>
+        <v>12.37410301098432</v>
       </c>
       <c r="K23">
-        <v>21.48723234859942</v>
+        <v>16.77103343136365</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.68326937303374</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.9930764213779</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68394175730177</v>
+        <v>29.57165136838561</v>
       </c>
       <c r="C24">
-        <v>26.92546631550679</v>
+        <v>28.35263979903047</v>
       </c>
       <c r="D24">
-        <v>8.766562040983779</v>
+        <v>8.742962282239738</v>
       </c>
       <c r="E24">
-        <v>35.57975553395934</v>
+        <v>35.37316992462912</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.46038199268103</v>
+        <v>48.12232053150417</v>
       </c>
       <c r="H24">
-        <v>4.32014448952771</v>
+        <v>4.195222452686941</v>
       </c>
       <c r="I24">
-        <v>4.29722629987463</v>
+        <v>4.09771181548602</v>
       </c>
       <c r="J24">
-        <v>14.97163492646049</v>
+        <v>13.57969460926241</v>
       </c>
       <c r="K24">
-        <v>20.53323381038629</v>
+        <v>16.99621535354562</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.16042938391843</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.64103895231105</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.86990593980424</v>
+        <v>26.80630954442624</v>
       </c>
       <c r="C25">
-        <v>24.33935767781433</v>
+        <v>25.59176120202256</v>
       </c>
       <c r="D25">
-        <v>7.889457095113454</v>
+        <v>7.875706030268352</v>
       </c>
       <c r="E25">
-        <v>32.12136751448058</v>
+        <v>31.98888490210171</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.5555752941431</v>
+        <v>44.10899459860985</v>
       </c>
       <c r="H25">
-        <v>3.717034776204025</v>
+        <v>3.635667664500293</v>
       </c>
       <c r="I25">
-        <v>3.772576389436349</v>
+        <v>3.657158047707388</v>
       </c>
       <c r="J25">
-        <v>14.07032151063164</v>
+        <v>13.08598250943799</v>
       </c>
       <c r="K25">
-        <v>19.51118890087674</v>
+        <v>16.60786300491597</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.224256864861</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.78423468681735</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
